--- a/数据整理/stocks/A股/上证主板/605166-聚合顺.xlsx
+++ b/数据整理/stocks/A股/上证主板/605166-聚合顺.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -659,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +671,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -690,13 +711,369 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013714</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正富邦泰利12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>41.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013715</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>方正富邦泰利12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>41.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>2.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605166-聚合顺.xlsx
+++ b/数据整理/stocks/A股/上证主板/605166-聚合顺.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5702</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.39</v>
       </c>
     </row>
     <row r="3">
@@ -1067,13 +1110,385 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5005</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3641</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013613</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3641</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605166-聚合顺.xlsx
+++ b/数据整理/stocks/A股/上证主板/605166-聚合顺.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519702</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银趋势优先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>75.98</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.3763</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.32</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001075</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>宝盈转型动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1981</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="4">
@@ -580,74 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011501</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>38.16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0655</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011502</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>38.16</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.64</v>
       </c>
     </row>
   </sheetData>
@@ -656,6 +532,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5702</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5005</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3641</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013613</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3641</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1015,13 +1289,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,36 +1346,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>050001</t>
+          <t>519702</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时价值增长混合</t>
+          <t>交银趋势优先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.37</t>
+          <t>91.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>75.77</t>
+          <t>75.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5702</t>
+          <t>2.3763</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1110,36 +1384,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001128</t>
+          <t>001075</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈新兴产业灵活配置混合</t>
+          <t>宝盈转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.06</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>88.02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5005</t>
+          <t>0.1981</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1148,36 +1422,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001877</t>
+          <t>011501</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈国家安全战略沪港深股票</t>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>38.16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3641</t>
+          <t>0.0655</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1186,310 +1460,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>013613</t>
+          <t>011502</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈国家安全沪港深股票C</t>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>38.16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3641</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>050201</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时价值增长贰号混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>75.43</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2265</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001075</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>宝盈转型动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1502</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011501</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>37.26</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0768</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012815</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>宝盈新兴产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0697</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011502</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>37.26</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.32</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.64</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/605166-聚合顺.xlsx
+++ b/数据整理/stocks/A股/上证主板/605166-聚合顺.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>2.32</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.39</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.64</v>
       </c>
     </row>
@@ -532,6 +549,784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7276</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7123</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4554</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3645</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3328</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3053</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013613</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015389</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>36.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -929,7 +1724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1289,7 +2084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/605166-聚合顺.xlsx
+++ b/数据整理/stocks/A股/上证主板/605166-聚合顺.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>3.66</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>2.32</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.39</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.64</v>
       </c>
     </row>
@@ -549,6 +566,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6823</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6538</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4081</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3119</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3024</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013613</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007316</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007317</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015389</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1326,7 +1969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1724,7 +2367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2084,7 +2727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
